--- a/Code/Results/Cases/Case_3_155/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_155/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.008886892329059</v>
+        <v>0.5193089267100106</v>
       </c>
       <c r="C2">
-        <v>0.1320226963645439</v>
+        <v>0.04114819573212003</v>
       </c>
       <c r="D2">
-        <v>0.07824182094489629</v>
+        <v>0.08254717687377777</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.133035837781051</v>
+        <v>1.914024535406469</v>
       </c>
       <c r="G2">
-        <v>0.0008315719175899635</v>
+        <v>0.002511625545141547</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.046768828916555</v>
+        <v>0.4830353581326108</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8742221234128351</v>
+        <v>0.4850821412092614</v>
       </c>
       <c r="C3">
-        <v>0.1140687480842359</v>
+        <v>0.0363099429850422</v>
       </c>
       <c r="D3">
-        <v>0.07909482445677618</v>
+        <v>0.08229327059816782</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.968346942135554</v>
+        <v>1.872212123149936</v>
       </c>
       <c r="G3">
-        <v>0.0008382108146969537</v>
+        <v>0.002515576516792954</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9049506786025177</v>
+        <v>0.4465399535422705</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7926418643599789</v>
+        <v>0.4643939747807906</v>
       </c>
       <c r="C4">
-        <v>0.1031646388726983</v>
+        <v>0.03335429765967035</v>
       </c>
       <c r="D4">
-        <v>0.07961586285314404</v>
+        <v>0.08212655301844585</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.870175123098221</v>
+        <v>1.847263560001906</v>
       </c>
       <c r="G4">
-        <v>0.0008424014464498697</v>
+        <v>0.002518129352817353</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8189876608028328</v>
+        <v>0.4244304537009782</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7596400875791858</v>
+        <v>0.4560456123537051</v>
       </c>
       <c r="C5">
-        <v>0.09874607582641204</v>
+        <v>0.03215359497086467</v>
       </c>
       <c r="D5">
-        <v>0.07982737496661763</v>
+        <v>0.08205587093752342</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.83084428895458</v>
+        <v>1.837277886025234</v>
       </c>
       <c r="G5">
-        <v>0.0008441389050805758</v>
+        <v>0.002519201673483343</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7841997393996394</v>
+        <v>0.4154956939196097</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7541738621656577</v>
+        <v>0.4546643386115079</v>
       </c>
       <c r="C6">
-        <v>0.0980137407091064</v>
+        <v>0.03195444434409467</v>
       </c>
       <c r="D6">
-        <v>0.07986244347430294</v>
+        <v>0.08204396786659274</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.824352346117067</v>
+        <v>1.83563067648052</v>
       </c>
       <c r="G6">
-        <v>0.0008444292330786208</v>
+        <v>0.002519381668240912</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7784368485955895</v>
+        <v>0.4140166134012304</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7921958518956558</v>
+        <v>0.4642810529449264</v>
       </c>
       <c r="C7">
-        <v>0.1031049540815019</v>
+        <v>0.03333808944471173</v>
       </c>
       <c r="D7">
-        <v>0.07961871884815785</v>
+        <v>0.08212561091320936</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.86964204516282</v>
+        <v>1.847128158034678</v>
       </c>
       <c r="G7">
-        <v>0.0008424247567213411</v>
+        <v>0.002518143684664592</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8185175634746997</v>
+        <v>0.4243096526962518</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9622034223664571</v>
+        <v>0.5074395737254918</v>
       </c>
       <c r="C8">
-        <v>0.1258041056136534</v>
+        <v>0.03947681394910774</v>
       </c>
       <c r="D8">
-        <v>0.07853641432322611</v>
+        <v>0.08246186146599577</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.075597951259368</v>
+        <v>1.899456588261899</v>
       </c>
       <c r="G8">
-        <v>0.0008338379016469265</v>
+        <v>0.002512961559591377</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9976153303088893</v>
+        <v>0.4703896454785763</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.306076888168406</v>
+        <v>0.594677245547075</v>
       </c>
       <c r="C9">
-        <v>0.1715227134179997</v>
+        <v>0.0516368446971569</v>
       </c>
       <c r="D9">
-        <v>0.07639919319765376</v>
+        <v>0.08303643447151821</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.506115041924247</v>
+        <v>2.007875893168318</v>
       </c>
       <c r="G9">
-        <v>0.0008178575135073827</v>
+        <v>0.002503801790408413</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.359515771990687</v>
+        <v>0.5631336420296122</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.567769964006061</v>
+        <v>0.6603765781960078</v>
       </c>
       <c r="C10">
-        <v>0.2062435422638345</v>
+        <v>0.060649643689203</v>
       </c>
       <c r="D10">
-        <v>0.07483039865855368</v>
+        <v>0.08340826380150368</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.843609915593419</v>
+        <v>2.091154850459702</v>
       </c>
       <c r="G10">
-        <v>0.0008065659505067657</v>
+        <v>0.002497676551098503</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.634773771418367</v>
+        <v>0.6327466395389649</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.689450432360104</v>
+        <v>0.690618139917575</v>
       </c>
       <c r="C11">
-        <v>0.2223848891623703</v>
+        <v>0.06476794969979949</v>
       </c>
       <c r="D11">
-        <v>0.07411980229026938</v>
+        <v>0.08356679186790217</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.002979033635512</v>
+        <v>2.129846204096737</v>
       </c>
       <c r="G11">
-        <v>0.0008015083644271294</v>
+        <v>0.002495019857208586</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.762745925187829</v>
+        <v>0.6647408752857871</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.735968482287831</v>
+        <v>0.7021210407815772</v>
       </c>
       <c r="C12">
-        <v>0.2285564910213509</v>
+        <v>0.06633014747114885</v>
       </c>
       <c r="D12">
-        <v>0.07385143800234317</v>
+        <v>0.0836253194723291</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.064282520811304</v>
+        <v>2.144615029748365</v>
       </c>
       <c r="G12">
-        <v>0.0007996028608265625</v>
+        <v>0.00249403238112719</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.811668763661146</v>
+        <v>0.676903554407204</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.725929355927519</v>
+        <v>0.6996414121207977</v>
       </c>
       <c r="C13">
-        <v>0.2272245310986705</v>
+        <v>0.06599358005516365</v>
       </c>
       <c r="D13">
-        <v>0.07390919791711781</v>
+        <v>0.08361278100175085</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.051035350858655</v>
+        <v>2.141429065796473</v>
       </c>
       <c r="G13">
-        <v>0.0008000128424410537</v>
+        <v>0.002494244228007511</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.801110648450958</v>
+        <v>0.6742820041667699</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.693268300548795</v>
+        <v>0.6915634663004937</v>
       </c>
       <c r="C14">
-        <v>0.222891386027456</v>
+        <v>0.06489641856776984</v>
       </c>
       <c r="D14">
-        <v>0.07409770752956746</v>
+        <v>0.08357163696775771</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.008002695999409</v>
+        <v>2.131058887799554</v>
       </c>
       <c r="G14">
-        <v>0.0008013514133617847</v>
+        <v>0.002494938245582794</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.766761160402297</v>
+        <v>0.6657405602789481</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.673321736783578</v>
+        <v>0.6866221457520396</v>
       </c>
       <c r="C15">
-        <v>0.2202452190785067</v>
+        <v>0.06422472653636646</v>
       </c>
       <c r="D15">
-        <v>0.07421327842439496</v>
+        <v>0.08354623995090016</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.98177175965813</v>
+        <v>2.12472215798644</v>
       </c>
       <c r="G15">
-        <v>0.0008021725369431045</v>
+        <v>0.00249536576518733</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.745783437685247</v>
+        <v>0.6605148248357011</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.559875980397521</v>
+        <v>0.6584073637600625</v>
       </c>
       <c r="C16">
-        <v>0.2051964200986873</v>
+        <v>0.06038087576270357</v>
       </c>
       <c r="D16">
-        <v>0.07487692260800927</v>
+        <v>0.08339769194411772</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.833321775783844</v>
+        <v>2.088642624026789</v>
       </c>
       <c r="G16">
-        <v>0.000806897926865494</v>
+        <v>0.002497852774097591</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.626471447436501</v>
+        <v>0.6306623318272671</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.490997209223167</v>
+        <v>0.6411893906505099</v>
       </c>
       <c r="C17">
-        <v>0.1960595972757346</v>
+        <v>0.05802752819359114</v>
       </c>
       <c r="D17">
-        <v>0.07528501862710435</v>
+        <v>0.08330385947872898</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.743825944924424</v>
+        <v>2.066716599930487</v>
       </c>
       <c r="G17">
-        <v>0.000809815901713773</v>
+        <v>0.002499411626502745</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.554028182183941</v>
+        <v>0.6124326294896036</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.451623933511684</v>
+        <v>0.6313194394863615</v>
       </c>
       <c r="C18">
-        <v>0.1908363472640531</v>
+        <v>0.05667566809448488</v>
       </c>
       <c r="D18">
-        <v>0.0755200130565683</v>
+        <v>0.08324888861803714</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.692892609604371</v>
+        <v>2.054181252352166</v>
       </c>
       <c r="G18">
-        <v>0.000811501789093505</v>
+        <v>0.002500320451834982</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.512615760316578</v>
+        <v>0.6019781503215142</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.438332956360171</v>
+        <v>0.6279833727158177</v>
       </c>
       <c r="C19">
-        <v>0.189073073705913</v>
+        <v>0.05621824602116021</v>
       </c>
       <c r="D19">
-        <v>0.07559961625113409</v>
+        <v>0.08323010380660989</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.675737316486249</v>
+        <v>2.049950003407545</v>
       </c>
       <c r="G19">
-        <v>0.0008120739455543571</v>
+        <v>0.002500630265242911</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.498636123728005</v>
+        <v>0.5984437227213562</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.498303798024523</v>
+        <v>0.6430188188530508</v>
       </c>
       <c r="C20">
-        <v>0.1970288503735844</v>
+        <v>0.05827786737580709</v>
       </c>
       <c r="D20">
-        <v>0.07524154640831426</v>
+        <v>0.08331395152604415</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.753296015216989</v>
+        <v>2.069042796677309</v>
       </c>
       <c r="G20">
-        <v>0.0008095045089162408</v>
+        <v>0.002499244420673092</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.561713039814606</v>
+        <v>0.6143700275084711</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.702849172072092</v>
+        <v>0.6939347678423928</v>
       </c>
       <c r="C21">
-        <v>0.2241624482991682</v>
+        <v>0.06521860824526016</v>
       </c>
       <c r="D21">
-        <v>0.07404231558900065</v>
+        <v>0.08358376258654054</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.020615574347602</v>
+        <v>2.134101669128285</v>
       </c>
       <c r="G21">
-        <v>0.0008009579936266782</v>
+        <v>0.002494733893035894</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.77683731930415</v>
+        <v>0.6682481083975631</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.83913127707558</v>
+        <v>0.7275090494457288</v>
       </c>
       <c r="C22">
-        <v>0.2422461940122531</v>
+        <v>0.0697704549853313</v>
       </c>
       <c r="D22">
-        <v>0.0732629276055512</v>
+        <v>0.08375134684220065</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.200946064483702</v>
+        <v>2.177305359636676</v>
       </c>
       <c r="G22">
-        <v>0.0007954279566127504</v>
+        <v>0.002491894117802226</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.920165857351577</v>
+        <v>0.7037354852497515</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.766134984491316</v>
+        <v>0.7095625475607221</v>
       </c>
       <c r="C23">
-        <v>0.2325591091301504</v>
+        <v>0.06733959869642092</v>
       </c>
       <c r="D23">
-        <v>0.07367839579857716</v>
+        <v>0.08366269711111052</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.104145026232743</v>
+        <v>2.154183773471999</v>
       </c>
       <c r="G23">
-        <v>0.0007983749502896458</v>
+        <v>0.002493399898277238</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.843394846073693</v>
+        <v>0.684769997952742</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.494999789696664</v>
+        <v>0.6421916443801479</v>
       </c>
       <c r="C24">
-        <v>0.1965905594482678</v>
+        <v>0.05816468557580379</v>
       </c>
       <c r="D24">
-        <v>0.07526119905261552</v>
+        <v>0.08330939210627086</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.749012988299768</v>
+        <v>2.067990904499283</v>
       </c>
       <c r="G24">
-        <v>0.0008096452636292954</v>
+        <v>0.002499319975129413</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.558237984959703</v>
+        <v>0.6134940488300629</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.21166823136582</v>
+        <v>0.5707965017282675</v>
       </c>
       <c r="C25">
-        <v>0.1589870653832577</v>
+        <v>0.04833371779862716</v>
       </c>
       <c r="D25">
-        <v>0.07697796209120078</v>
+        <v>0.08288993284186041</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.386312586013815</v>
+        <v>1.977915469958788</v>
       </c>
       <c r="G25">
-        <v>0.0008220959947161559</v>
+        <v>0.002506173127785671</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.260189752656174</v>
+        <v>0.5377867287617448</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_155/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_155/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5193089267100106</v>
+        <v>1.008886892328945</v>
       </c>
       <c r="C2">
-        <v>0.04114819573212003</v>
+        <v>0.1320226963645013</v>
       </c>
       <c r="D2">
-        <v>0.08254717687377777</v>
+        <v>0.07824182094475951</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.914024535406469</v>
+        <v>2.133035837781037</v>
       </c>
       <c r="G2">
-        <v>0.002511625545141547</v>
+        <v>0.0008315719176424138</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4830353581326108</v>
+        <v>1.046768828916584</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4850821412092614</v>
+        <v>0.8742221234128635</v>
       </c>
       <c r="C3">
-        <v>0.0363099429850422</v>
+        <v>0.1140687480843496</v>
       </c>
       <c r="D3">
-        <v>0.08229327059816782</v>
+        <v>0.07909482445673355</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.872212123149936</v>
+        <v>1.968346942135554</v>
       </c>
       <c r="G3">
-        <v>0.002515576516792954</v>
+        <v>0.0008382108147551805</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4465399535422705</v>
+        <v>0.9049506786025461</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4643939747807906</v>
+        <v>0.7926418643599504</v>
       </c>
       <c r="C4">
-        <v>0.03335429765967035</v>
+        <v>0.1031646388726983</v>
       </c>
       <c r="D4">
-        <v>0.08212655301844585</v>
+        <v>0.07961586285291844</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.847263560001906</v>
+        <v>1.870175123098235</v>
       </c>
       <c r="G4">
-        <v>0.002518129352817353</v>
+        <v>0.0008424014464818988</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4244304537009782</v>
+        <v>0.8189876608029465</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4560456123537051</v>
+        <v>0.7596400875795553</v>
       </c>
       <c r="C5">
-        <v>0.03215359497086467</v>
+        <v>0.09874607582639783</v>
       </c>
       <c r="D5">
-        <v>0.08205587093752342</v>
+        <v>0.07982737496636005</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.837277886025234</v>
+        <v>1.830844288954609</v>
       </c>
       <c r="G5">
-        <v>0.002519201673483343</v>
+        <v>0.0008441389051067361</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4154956939196097</v>
+        <v>0.7841997393995257</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4546643386115079</v>
+        <v>0.7541738621658283</v>
       </c>
       <c r="C6">
-        <v>0.03195444434409467</v>
+        <v>0.09801374070930535</v>
       </c>
       <c r="D6">
-        <v>0.08204396786659274</v>
+        <v>0.07986244347446281</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.83563067648052</v>
+        <v>1.824352346117038</v>
       </c>
       <c r="G6">
-        <v>0.002519381668240912</v>
+        <v>0.00084442923305623</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4140166134012304</v>
+        <v>0.7784368485955895</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4642810529449264</v>
+        <v>0.7921958518958263</v>
       </c>
       <c r="C7">
-        <v>0.03333808944471173</v>
+        <v>0.1031049540813314</v>
       </c>
       <c r="D7">
-        <v>0.08212561091320936</v>
+        <v>0.07961871884829286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.847128158034678</v>
+        <v>1.869642045162763</v>
       </c>
       <c r="G7">
-        <v>0.002518143684664592</v>
+        <v>0.0008424247568004836</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4243096526962518</v>
+        <v>0.8185175634746997</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5074395737254918</v>
+        <v>0.9622034223664855</v>
       </c>
       <c r="C8">
-        <v>0.03947681394910774</v>
+        <v>0.125804105613625</v>
       </c>
       <c r="D8">
-        <v>0.08246186146599577</v>
+        <v>0.07853641432303426</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.899456588261899</v>
+        <v>2.075597951259368</v>
       </c>
       <c r="G8">
-        <v>0.002512961559591377</v>
+        <v>0.0008338379017112096</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4703896454785763</v>
+        <v>0.9976153303089461</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.594677245547075</v>
+        <v>1.306076888168207</v>
       </c>
       <c r="C9">
-        <v>0.0516368446971569</v>
+        <v>0.1715227134179429</v>
       </c>
       <c r="D9">
-        <v>0.08303643447151821</v>
+        <v>0.0763991931977408</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.007875893168318</v>
+        <v>2.506115041924275</v>
       </c>
       <c r="G9">
-        <v>0.002503801790408413</v>
+        <v>0.0008178575133858295</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5631336420296122</v>
+        <v>1.359515771990601</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6603765781960078</v>
+        <v>1.567769964006118</v>
       </c>
       <c r="C10">
-        <v>0.060649643689203</v>
+        <v>0.2062435422635787</v>
       </c>
       <c r="D10">
-        <v>0.08340826380150368</v>
+        <v>0.07483039865854124</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.091154850459702</v>
+        <v>2.843609915593504</v>
       </c>
       <c r="G10">
-        <v>0.002497676551098503</v>
+        <v>0.0008065659505049303</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6327466395389649</v>
+        <v>1.634773771418509</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.690618139917575</v>
+        <v>1.689450432360047</v>
       </c>
       <c r="C11">
-        <v>0.06476794969979949</v>
+        <v>0.2223848891623419</v>
       </c>
       <c r="D11">
-        <v>0.08356679186790217</v>
+        <v>0.07411980229037951</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.129846204096737</v>
+        <v>3.00297903363554</v>
       </c>
       <c r="G11">
-        <v>0.002495019857208586</v>
+        <v>0.0008015083644227516</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6647408752857871</v>
+        <v>1.762745925187801</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7021210407815772</v>
+        <v>1.735968482287888</v>
       </c>
       <c r="C12">
-        <v>0.06633014747114885</v>
+        <v>0.2285564910216067</v>
       </c>
       <c r="D12">
-        <v>0.0836253194723291</v>
+        <v>0.07385143800234317</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.144615029748365</v>
+        <v>3.064282520811304</v>
       </c>
       <c r="G12">
-        <v>0.00249403238112719</v>
+        <v>0.0007996028609486058</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.676903554407204</v>
+        <v>1.811668763661089</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6996414121207977</v>
+        <v>1.725929355927263</v>
       </c>
       <c r="C13">
-        <v>0.06599358005516365</v>
+        <v>0.2272245310986136</v>
       </c>
       <c r="D13">
-        <v>0.08361278100175085</v>
+        <v>0.07390919791728834</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.141429065796473</v>
+        <v>3.051035350858655</v>
       </c>
       <c r="G13">
-        <v>0.002494244228007511</v>
+        <v>0.000800012842431412</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6742820041667699</v>
+        <v>1.80111064845093</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6915634663004937</v>
+        <v>1.693268300548766</v>
       </c>
       <c r="C14">
-        <v>0.06489641856776984</v>
+        <v>0.2228913860269159</v>
       </c>
       <c r="D14">
-        <v>0.08357163696775771</v>
+        <v>0.07409770752964207</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.131058887799554</v>
+        <v>3.00800269599938</v>
       </c>
       <c r="G14">
-        <v>0.002494938245582794</v>
+        <v>0.0008013514134739871</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6657405602789481</v>
+        <v>1.766761160402297</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6866221457520396</v>
+        <v>1.673321736783521</v>
       </c>
       <c r="C15">
-        <v>0.06422472653636646</v>
+        <v>0.2202452190789899</v>
       </c>
       <c r="D15">
-        <v>0.08354623995090016</v>
+        <v>0.0742132784245193</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.12472215798644</v>
+        <v>2.981771759658102</v>
       </c>
       <c r="G15">
-        <v>0.00249536576518733</v>
+        <v>0.0008021725370080235</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6605148248357011</v>
+        <v>1.745783437685247</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6584073637600625</v>
+        <v>1.55987598039772</v>
       </c>
       <c r="C16">
-        <v>0.06038087576270357</v>
+        <v>0.2051964200993552</v>
       </c>
       <c r="D16">
-        <v>0.08339769194411772</v>
+        <v>0.07487692260816559</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.088642624026789</v>
+        <v>2.833321775783901</v>
       </c>
       <c r="G16">
-        <v>0.002497852774097591</v>
+        <v>0.0008068979269109053</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6306623318272671</v>
+        <v>1.626471447436501</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6411893906505099</v>
+        <v>1.490997209223252</v>
       </c>
       <c r="C17">
-        <v>0.05802752819359114</v>
+        <v>0.1960595972757204</v>
       </c>
       <c r="D17">
-        <v>0.08330385947872898</v>
+        <v>0.07528501862721448</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.066716599930487</v>
+        <v>2.743825944924481</v>
       </c>
       <c r="G17">
-        <v>0.002499411626502745</v>
+        <v>0.0008098159017720794</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6124326294896036</v>
+        <v>1.554028182183885</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6313194394863615</v>
+        <v>1.451623933511485</v>
       </c>
       <c r="C18">
-        <v>0.05667566809448488</v>
+        <v>0.1908363472642947</v>
       </c>
       <c r="D18">
-        <v>0.08324888861803714</v>
+        <v>0.07552001305688449</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.054181252352166</v>
+        <v>2.692892609604343</v>
       </c>
       <c r="G18">
-        <v>0.002500320451834982</v>
+        <v>0.0008115017890321986</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6019781503215142</v>
+        <v>1.512615760316606</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6279833727158177</v>
+        <v>1.438332956359972</v>
       </c>
       <c r="C19">
-        <v>0.05621824602116021</v>
+        <v>0.189073073705913</v>
       </c>
       <c r="D19">
-        <v>0.08323010380660989</v>
+        <v>0.07559961625113409</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.049950003407545</v>
+        <v>2.675737316486277</v>
       </c>
       <c r="G19">
-        <v>0.002500630265242911</v>
+        <v>0.000812073945494706</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5984437227213562</v>
+        <v>1.49863612372809</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6430188188530508</v>
+        <v>1.498303798024352</v>
       </c>
       <c r="C20">
-        <v>0.05827786737580709</v>
+        <v>0.1970288503733428</v>
       </c>
       <c r="D20">
-        <v>0.08331395152604415</v>
+        <v>0.07524154640844571</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.069042796677309</v>
+        <v>2.753296015216961</v>
       </c>
       <c r="G20">
-        <v>0.002499244420673092</v>
+        <v>0.0008095045089200337</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6143700275084711</v>
+        <v>1.561713039814606</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6939347678423928</v>
+        <v>1.702849172072092</v>
       </c>
       <c r="C21">
-        <v>0.06521860824526016</v>
+        <v>0.2241624482993956</v>
       </c>
       <c r="D21">
-        <v>0.08358376258654054</v>
+        <v>0.07404231558898999</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.134101669128285</v>
+        <v>3.020615574347602</v>
       </c>
       <c r="G21">
-        <v>0.002494733893035894</v>
+        <v>0.0008009579936819673</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6682481083975631</v>
+        <v>1.776837319304235</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7275090494457288</v>
+        <v>1.839131277075438</v>
       </c>
       <c r="C22">
-        <v>0.0697704549853313</v>
+        <v>0.2422461940119831</v>
       </c>
       <c r="D22">
-        <v>0.08375134684220065</v>
+        <v>0.07326292760545172</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.177305359636676</v>
+        <v>3.200946064483702</v>
       </c>
       <c r="G22">
-        <v>0.002491894117802226</v>
+        <v>0.0007954279566829509</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7037354852497515</v>
+        <v>1.920165857351407</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7095625475607221</v>
+        <v>1.766134984491401</v>
       </c>
       <c r="C23">
-        <v>0.06733959869642092</v>
+        <v>0.232559109129852</v>
       </c>
       <c r="D23">
-        <v>0.08366269711111052</v>
+        <v>0.07367839579876545</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.154183773471999</v>
+        <v>3.104145026232828</v>
       </c>
       <c r="G23">
-        <v>0.002493399898277238</v>
+        <v>0.0007983749503371624</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.684769997952742</v>
+        <v>1.843394846073664</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6421916443801479</v>
+        <v>1.49499978969672</v>
       </c>
       <c r="C24">
-        <v>0.05816468557580379</v>
+        <v>0.1965905594477846</v>
       </c>
       <c r="D24">
-        <v>0.08330939210627086</v>
+        <v>0.07526119905270079</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.067990904499283</v>
+        <v>2.749012988299768</v>
       </c>
       <c r="G24">
-        <v>0.002499319975129413</v>
+        <v>0.0008096452636226573</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6134940488300629</v>
+        <v>1.55823798495976</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5707965017282675</v>
+        <v>1.21166823136582</v>
       </c>
       <c r="C25">
-        <v>0.04833371779862716</v>
+        <v>0.1589870653832719</v>
       </c>
       <c r="D25">
-        <v>0.08288993284186041</v>
+        <v>0.07697796209130559</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.977915469958788</v>
+        <v>2.386312586013815</v>
       </c>
       <c r="G25">
-        <v>0.002506173127785671</v>
+        <v>0.0008220959947145737</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5377867287617448</v>
+        <v>1.260189752656288</v>
       </c>
       <c r="L25">
         <v>0</v>
